--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Jos Buttler †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Jos Buttler †.xlsx
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 14 2020</v>
+        <v xml:space="preserve"> Oct 9 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Capitals won by 13 runs</v>
+        <v>Capitals won by 46 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Delhi Capitals</v>
@@ -457,30 +457,30 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="G2" t="str">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H2" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>244.44</v>
+        <v>162.50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 9 2020</v>
+        <v xml:space="preserve"> Oct 14 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Capitals won by 46 runs</v>
+        <v>Capitals won by 13 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
@@ -492,19 +492,19 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="G3" t="str">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>162.50</v>
+        <v>244.44</v>
       </c>
     </row>
   </sheetData>
